--- a/z.docs/ar_tree_results.xlsx
+++ b/z.docs/ar_tree_results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="381" documentId="13_ncr:1_{512D6CF9-B8B0-4195-82D7-01F7F2EFD239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5022001C-A0FC-429C-91B3-05B4D7CA61FF}"/>
+  <xr:revisionPtr revIDLastSave="431" documentId="13_ncr:1_{512D6CF9-B8B0-4195-82D7-01F7F2EFD239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2851D61-6AFE-44A7-8E90-E019E9BF4D17}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="1275" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sayfa2" sheetId="3" r:id="rId2"/>
+    <sheet name="main" sheetId="2" r:id="rId1"/>
+    <sheet name="backup" sheetId="3" r:id="rId2"/>
+    <sheet name="tbtk-rpr" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
-  <si>
-    <t>BACE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="35">
   <si>
     <t>ClinTox</t>
   </si>
@@ -116,6 +114,30 @@
   </si>
   <si>
     <t>SIDER</t>
+  </si>
+  <si>
+    <t>BBBP-10K</t>
+  </si>
+  <si>
+    <t>BACE Clf</t>
+  </si>
+  <si>
+    <t>BACE Reg</t>
+  </si>
+  <si>
+    <t>BBBP</t>
+  </si>
+  <si>
+    <t>BACE Snf</t>
+  </si>
+  <si>
+    <t>RMSE (Regresyon)</t>
+  </si>
+  <si>
+    <t>% ROC-AUC (Sınıflandırma)</t>
+  </si>
+  <si>
+    <t>Hu vd.</t>
   </si>
 </sst>
 </file>
@@ -157,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -707,11 +729,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -863,9 +955,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,50 +1018,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1217,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408F6DFC-E413-43A5-A005-60BA816011E8}">
   <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,86 +1369,86 @@
   <sheetData>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="74"/>
+      <c r="K3" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-      <c r="K3" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="69"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="57"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="71"/>
+      <c r="L4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="68">
+        <v>13</v>
+      </c>
+      <c r="D5" s="61">
         <v>76.2</v>
       </c>
       <c r="E5" s="9">
         <v>64.900000000000006</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="9">
+        <v>68.5</v>
+      </c>
+      <c r="G5" s="37">
         <v>99.7</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
         <v>57.7</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="64">
         <v>63.2</v>
       </c>
-      <c r="I5" s="71">
-        <v>87.2</v>
-      </c>
       <c r="K5" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="39">
         <v>1.02</v>
@@ -1330,29 +1464,29 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="69">
+      <c r="C6" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="62">
         <v>86.7</v>
       </c>
       <c r="E6" s="3">
         <v>71.400000000000006</v>
       </c>
       <c r="F6" s="3">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G6" s="3">
         <v>71.3</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>68.400000000000006</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="10">
         <v>76.900000000000006</v>
       </c>
-      <c r="I6" s="10">
-        <v>71.400000000000006</v>
-      </c>
       <c r="K6" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="31">
         <v>1.32</v>
@@ -1368,32 +1502,32 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="64">
+      <c r="C7" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="57">
         <v>86.2</v>
       </c>
       <c r="E7" s="2">
         <v>72.900000000000006</v>
       </c>
       <c r="F7" s="2">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="G7" s="2">
         <v>66.900000000000006</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>68.2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="11">
         <v>81.8</v>
       </c>
-      <c r="I7" s="11">
-        <v>72.900000000000006</v>
-      </c>
       <c r="K7" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" s="12">
         <v>1.5</v>
@@ -1406,29 +1540,29 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="64">
+      <c r="C8" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="57">
         <v>71.599999999999994</v>
       </c>
       <c r="E8" s="2">
         <v>71.8</v>
       </c>
       <c r="F8" s="2">
+        <v>71.8</v>
+      </c>
+      <c r="G8" s="2">
         <v>62.5</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>53.6</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="11">
         <v>70.900000000000006</v>
       </c>
-      <c r="I8" s="11">
-        <v>71.8</v>
-      </c>
       <c r="K8" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L8" s="19">
         <v>1.65</v>
@@ -1444,32 +1578,32 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="64">
+      <c r="C9" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="57">
         <v>70.099999999999994</v>
       </c>
       <c r="E9" s="2">
         <v>65.8</v>
       </c>
       <c r="F9" s="2">
+        <v>65.8</v>
+      </c>
+      <c r="G9" s="2">
         <v>58</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>57.3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="11">
         <v>74</v>
       </c>
-      <c r="I9" s="11">
-        <v>65.8</v>
-      </c>
       <c r="K9" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" s="12">
         <v>1.45</v>
@@ -1482,32 +1616,32 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="64">
+      <c r="C10" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="57">
         <v>76.599999999999994</v>
       </c>
       <c r="E10" s="2">
         <v>84.8</v>
       </c>
       <c r="F10" s="2">
+        <v>84.8</v>
+      </c>
+      <c r="G10" s="2">
         <v>71.5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>53.9</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="11">
         <v>77.2</v>
       </c>
-      <c r="I10" s="11">
-        <v>84.8</v>
-      </c>
       <c r="K10" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10" s="12">
         <v>1.05</v>
@@ -1520,32 +1654,32 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="64">
+      <c r="C11" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="57">
         <v>73.400000000000006</v>
       </c>
       <c r="E11" s="2">
         <v>85</v>
       </c>
       <c r="F11" s="2">
+        <v>85</v>
+      </c>
+      <c r="G11" s="2">
         <v>63.4</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>55.2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="11">
         <v>70.7</v>
       </c>
-      <c r="I11" s="11">
-        <v>85</v>
-      </c>
       <c r="K11" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11" s="12">
         <v>1.27</v>
@@ -1558,29 +1692,29 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="67">
+      <c r="C12" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="60">
         <v>85.3</v>
       </c>
       <c r="E12" s="23">
         <v>71.2</v>
       </c>
       <c r="F12" s="23">
+        <v>71.2</v>
+      </c>
+      <c r="G12" s="23">
         <v>90.5</v>
       </c>
-      <c r="G12" s="23">
+      <c r="H12" s="23">
         <v>63.2</v>
       </c>
-      <c r="H12" s="23">
+      <c r="I12" s="24">
         <v>68.900000000000006</v>
       </c>
-      <c r="I12" s="24">
-        <v>71.2</v>
-      </c>
       <c r="K12" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" s="27">
         <v>2.25</v>
@@ -1596,32 +1730,32 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="63">
+      <c r="C13" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="56">
         <v>85.9</v>
       </c>
       <c r="E13" s="13">
         <v>70.8</v>
       </c>
       <c r="F13" s="13">
+        <v>70.8</v>
+      </c>
+      <c r="G13" s="13">
         <v>78.900000000000006</v>
       </c>
-      <c r="G13" s="13">
+      <c r="H13" s="13">
         <v>65.2</v>
       </c>
-      <c r="H13" s="13">
+      <c r="I13" s="59">
         <v>78.7</v>
       </c>
-      <c r="I13" s="66">
-        <v>70.8</v>
-      </c>
       <c r="K13" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13" s="17">
         <v>1.22</v>
@@ -1634,32 +1768,32 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="64">
+      <c r="C14" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="57">
         <v>87.6</v>
       </c>
       <c r="E14" s="2">
         <v>91.2</v>
       </c>
       <c r="F14" s="2">
+        <v>91.2</v>
+      </c>
+      <c r="G14" s="2">
         <v>85.5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>63.2</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="11">
         <v>76.900000000000006</v>
       </c>
-      <c r="I14" s="11">
-        <v>91.2</v>
-      </c>
       <c r="K14" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M14" s="12">
         <v>1.1000000000000001</v>
@@ -1672,32 +1806,32 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="64">
+      <c r="C15" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="57">
         <v>78.8</v>
       </c>
       <c r="E15" s="2">
         <v>73.8</v>
       </c>
       <c r="F15" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="G15" s="2">
         <v>86.7</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>66.900000000000006</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="11">
         <v>74.7</v>
       </c>
-      <c r="I15" s="11">
-        <v>73.8</v>
-      </c>
       <c r="K15" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M15" s="12">
         <v>1.1599999999999999</v>
@@ -1710,32 +1844,32 @@
       </c>
     </row>
     <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="70">
+      <c r="C16" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="63">
         <v>89</v>
       </c>
       <c r="E16" s="4">
         <v>73.599999999999994</v>
       </c>
       <c r="F16" s="4">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G16" s="4">
         <v>93.2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>68</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="58">
         <v>79.8</v>
       </c>
-      <c r="I16" s="65">
-        <v>73.599999999999994</v>
-      </c>
       <c r="K16" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M16" s="14">
         <v>1.1100000000000001</v>
@@ -1748,67 +1882,67 @@
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
+        <v>64.3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>64.3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>73.3</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="10">
+        <v>72.8</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="13">
-        <v>64.3</v>
-      </c>
-      <c r="F17" s="13">
-        <v>73.3</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="13">
-        <v>72.8</v>
-      </c>
-      <c r="I17" s="66">
-        <v>64.3</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17" s="33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="67">
+      <c r="D18" s="60">
         <v>79.900000000000006</v>
       </c>
       <c r="E18" s="23">
         <v>74.2</v>
       </c>
       <c r="F18" s="23">
+        <v>74.2</v>
+      </c>
+      <c r="G18" s="23">
         <v>60.1</v>
       </c>
-      <c r="G18" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="23">
+      <c r="H18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="24">
         <v>83.4</v>
       </c>
-      <c r="I18" s="24">
-        <v>74.2</v>
-      </c>
       <c r="K18" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="25">
         <v>1.36</v>
@@ -1817,7 +1951,7 @@
         <v>0.86</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O18" s="8">
         <v>0.74</v>
@@ -1825,31 +1959,31 @@
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="68">
+        <v>25</v>
+      </c>
+      <c r="D19" s="61">
         <v>88.2</v>
       </c>
       <c r="E19" s="37">
         <v>93.7</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="37">
+        <v>93.7</v>
+      </c>
+      <c r="G19" s="9">
         <v>94.8</v>
       </c>
-      <c r="G19" s="37">
+      <c r="H19" s="37">
         <v>69</v>
       </c>
-      <c r="H19" s="37">
+      <c r="I19" s="38">
         <v>84.7</v>
       </c>
-      <c r="I19" s="38">
-        <v>93.7</v>
-      </c>
       <c r="K19" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L19" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M19" s="40">
         <v>0.28000000000000003</v>
@@ -1886,16 +2020,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863A4FEB-0ADD-47E8-90BC-59BCA7266C6D}">
-  <dimension ref="C4:L5"/>
+  <dimension ref="C4:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="36">
         <v>77.2</v>
       </c>
@@ -1922,9 +2056,696 @@
       </c>
       <c r="L5" s="42">
         <v>0.68</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="64">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="10">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="11">
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="11">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="11">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="11">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="24">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="59">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="11">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="11">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O17" s="58">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="59">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="19" spans="15:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="24">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="20" spans="15:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="38">
+        <v>93.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40FC9C1-57E9-4903-BD74-4DDC66E740BB}">
+  <dimension ref="C2:O19"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
+    <col min="7" max="8" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="85"/>
+      <c r="K3" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="69"/>
+    </row>
+    <row r="4" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="66"/>
+      <c r="D4" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="71"/>
+      <c r="L4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="61">
+        <v>76.2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="F5" s="76">
+        <v>99.7</v>
+      </c>
+      <c r="G5" s="9">
+        <v>57.7</v>
+      </c>
+      <c r="H5" s="64">
+        <v>63.2</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="80">
+        <v>1.02</v>
+      </c>
+      <c r="M5" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="N5" s="47">
+        <v>0.77</v>
+      </c>
+      <c r="O5" s="42">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="62">
+        <v>86.7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="F6" s="3">
+        <v>71.3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="H6" s="10">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="31">
+        <v>1.32</v>
+      </c>
+      <c r="M6" s="32">
+        <v>1.07</v>
+      </c>
+      <c r="N6" s="32">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O6" s="33">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="57">
+        <v>86.2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="F7" s="2">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="G7" s="2">
+        <v>68.2</v>
+      </c>
+      <c r="H7" s="11">
+        <v>81.8</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="N7" s="12">
+        <v>3.14</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="57">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="E8" s="2">
+        <v>71.8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>53.6</v>
+      </c>
+      <c r="H8" s="11">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="19">
+        <v>1.65</v>
+      </c>
+      <c r="M8" s="12">
+        <v>1.43</v>
+      </c>
+      <c r="N8" s="12">
+        <v>2.87</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="57">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="E9" s="2">
+        <v>65.8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>58</v>
+      </c>
+      <c r="G9" s="2">
+        <v>57.3</v>
+      </c>
+      <c r="H9" s="11">
+        <v>74</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1.45</v>
+      </c>
+      <c r="N9" s="12">
+        <v>2.76</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="57">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="E10" s="2">
+        <v>84.8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>53.9</v>
+      </c>
+      <c r="H10" s="11">
+        <v>77.2</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="12">
+        <v>1.05</v>
+      </c>
+      <c r="N10" s="12">
+        <v>3.22</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="57">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="E11" s="2">
+        <v>85</v>
+      </c>
+      <c r="F11" s="2">
+        <v>63.4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>55.2</v>
+      </c>
+      <c r="H11" s="11">
+        <v>70.7</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="12">
+        <v>1.27</v>
+      </c>
+      <c r="N11" s="12">
+        <v>3.35</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="60">
+        <v>85.3</v>
+      </c>
+      <c r="E12" s="23">
+        <v>71.2</v>
+      </c>
+      <c r="F12" s="23">
+        <v>90.5</v>
+      </c>
+      <c r="G12" s="23">
+        <v>63.2</v>
+      </c>
+      <c r="H12" s="24">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="27">
+        <v>2.25</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0.98</v>
+      </c>
+      <c r="N12" s="16">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="O12" s="45">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="56">
+        <v>85.9</v>
+      </c>
+      <c r="E13" s="13">
+        <v>70.8</v>
+      </c>
+      <c r="F13" s="13">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="G13" s="13">
+        <v>65.2</v>
+      </c>
+      <c r="H13" s="59">
+        <v>78.7</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="17">
+        <v>1.22</v>
+      </c>
+      <c r="N13" s="17">
+        <v>2.83</v>
+      </c>
+      <c r="O13" s="34">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="57">
+        <v>87.6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>91.2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>85.5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>63.2</v>
+      </c>
+      <c r="H14" s="11">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N14" s="12">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="O14" s="29">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="57">
+        <v>78.8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="F15" s="2">
+        <v>86.7</v>
+      </c>
+      <c r="G15" s="2">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="H15" s="11">
+        <v>74.7</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N15" s="12">
+        <v>2.39</v>
+      </c>
+      <c r="O15" s="29">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="75">
+        <v>89</v>
+      </c>
+      <c r="E16" s="4">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F16" s="4">
+        <v>93.2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>68</v>
+      </c>
+      <c r="H16" s="58">
+        <v>79.8</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N16" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O16" s="46">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
+        <v>64.3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>73.3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="10">
+        <v>72.8</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="60">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="E18" s="23">
+        <v>74.2</v>
+      </c>
+      <c r="F18" s="23">
+        <v>60.1</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="24">
+        <v>83.4</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="25">
+        <v>1.36</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="61">
+        <v>88.2</v>
+      </c>
+      <c r="E19" s="76">
+        <v>93.7</v>
+      </c>
+      <c r="F19" s="9">
+        <v>94.8</v>
+      </c>
+      <c r="G19" s="76">
+        <v>69</v>
+      </c>
+      <c r="H19" s="77">
+        <v>84.7</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="78">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N19" s="78">
+        <v>0.23</v>
+      </c>
+      <c r="O19" s="79">
+        <v>0.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="D3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/z.docs/ar_tree_results.xlsx
+++ b/z.docs/ar_tree_results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="431" documentId="13_ncr:1_{512D6CF9-B8B0-4195-82D7-01F7F2EFD239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2851D61-6AFE-44A7-8E90-E019E9BF4D17}"/>
+  <xr:revisionPtr revIDLastSave="432" documentId="13_ncr:1_{512D6CF9-B8B0-4195-82D7-01F7F2EFD239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AE93397-3A7C-4B60-9775-DF4E2160A4B1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -803,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -997,6 +997,33 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,38 +1054,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1351,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408F6DFC-E413-43A5-A005-60BA816011E8}">
   <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:O19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,29 +1366,29 @@
   <sheetData>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
-      <c r="K3" s="70" t="s">
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
+      <c r="K3" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="69"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="66"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="49" t="s">
         <v>28</v>
       </c>
@@ -1410,7 +1407,7 @@
       <c r="I4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="71"/>
+      <c r="K4" s="80"/>
       <c r="L4" s="30" t="s">
         <v>29</v>
       </c>
@@ -1436,7 +1433,7 @@
         <v>64.900000000000006</v>
       </c>
       <c r="F5" s="9">
-        <v>68.5</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="G5" s="37">
         <v>99.7</v>
@@ -2022,7 +2019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863A4FEB-0ADD-47E8-90BC-59BCA7266C6D}">
   <dimension ref="C4:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5:O20"/>
     </sheetView>
   </sheetViews>
@@ -2165,42 +2162,42 @@
       <c r="C3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="85"/>
-      <c r="K3" s="70" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="73"/>
+      <c r="K3" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="69"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
     </row>
     <row r="4" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="66"/>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="71"/>
+      <c r="K4" s="80"/>
       <c r="L4" s="30" t="s">
         <v>29</v>
       </c>
@@ -2224,7 +2221,7 @@
       <c r="E5" s="9">
         <v>64.900000000000006</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="15">
         <v>99.7</v>
       </c>
       <c r="G5" s="9">
@@ -2236,7 +2233,7 @@
       <c r="K5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="80">
+      <c r="L5" s="69">
         <v>1.02</v>
       </c>
       <c r="M5" s="47">
@@ -2603,7 +2600,7 @@
       <c r="C16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="65">
         <v>89</v>
       </c>
       <c r="E16" s="4">
@@ -2711,16 +2708,16 @@
       <c r="D19" s="61">
         <v>88.2</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="15">
         <v>93.7</v>
       </c>
       <c r="F19" s="9">
         <v>94.8</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="15">
         <v>69</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="66">
         <v>84.7</v>
       </c>
       <c r="K19" s="43" t="s">
@@ -2729,13 +2726,13 @@
       <c r="L19" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="78">
+      <c r="M19" s="67">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N19" s="78">
+      <c r="N19" s="67">
         <v>0.23</v>
       </c>
-      <c r="O19" s="79">
+      <c r="O19" s="68">
         <v>0.53</v>
       </c>
     </row>
